--- a/docs/CareConnect-Immunization-1.xlsx
+++ b/docs/CareConnect-Immunization-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="545">
   <si>
     <t>Path</t>
   </si>
@@ -976,6 +976,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Immunization.site.coding.system</t>
@@ -6571,10 +6577,10 @@
         <v>307</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6643,7 +6649,7 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6683,23 +6689,23 @@
         <v>64</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>41</v>
@@ -6741,7 +6747,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6756,10 +6762,10 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6773,7 +6779,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6799,13 +6805,13 @@
         <v>131</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6855,7 +6861,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6870,10 +6876,10 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6887,7 +6893,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6913,14 +6919,14 @@
         <v>70</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6969,7 +6975,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6984,10 +6990,10 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -7001,7 +7007,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7027,14 +7033,14 @@
         <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
@@ -7083,7 +7089,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7098,10 +7104,10 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -7115,7 +7121,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7141,16 +7147,16 @@
         <v>202</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -7199,7 +7205,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7214,10 +7220,10 @@
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -7231,7 +7237,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7257,16 +7263,16 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -7315,7 +7321,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7330,10 +7336,10 @@
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -7347,7 +7353,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7373,10 +7379,10 @@
         <v>152</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7406,10 +7412,10 @@
         <v>254</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>41</v>
@@ -7427,7 +7433,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7442,10 +7448,10 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
@@ -7454,12 +7460,12 @@
         <v>41</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7571,7 +7577,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7685,7 +7691,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7799,7 +7805,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>303</v>
@@ -7864,10 +7870,10 @@
         <v>254</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7917,7 +7923,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8029,7 +8035,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8141,7 +8147,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>306</v>
@@ -8169,10 +8175,10 @@
         <v>307</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8241,7 +8247,7 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -8255,7 +8261,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8281,23 +8287,23 @@
         <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>41</v>
@@ -8339,7 +8345,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8354,10 +8360,10 @@
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
@@ -8371,7 +8377,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8397,13 +8403,13 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8453,7 +8459,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8468,10 +8474,10 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
@@ -8485,7 +8491,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8511,14 +8517,14 @@
         <v>70</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
@@ -8567,7 +8573,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8582,10 +8588,10 @@
         <v>41</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
@@ -8599,7 +8605,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8625,14 +8631,14 @@
         <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
@@ -8681,7 +8687,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8696,10 +8702,10 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
@@ -8713,7 +8719,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8739,16 +8745,16 @@
         <v>202</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>41</v>
@@ -8797,7 +8803,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8812,10 +8818,10 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
@@ -8829,7 +8835,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8855,16 +8861,16 @@
         <v>131</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8913,7 +8919,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8928,10 +8934,10 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
@@ -8945,7 +8951,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8968,13 +8974,13 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9025,7 +9031,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9040,10 +9046,10 @@
         <v>41</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
@@ -9057,7 +9063,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9080,13 +9086,13 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9137,7 +9143,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9149,19 +9155,19 @@
         <v>41</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9281,7 +9287,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9395,11 +9401,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9424,7 +9430,7 @@
         <v>118</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>120</v>
@@ -9477,7 +9483,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9509,7 +9515,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9535,10 +9541,10 @@
         <v>152</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9568,10 +9574,10 @@
         <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9589,7 +9595,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9607,13 +9613,13 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9621,7 +9627,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9644,13 +9650,13 @@
         <v>52</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9701,7 +9707,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>51</v>
@@ -9719,13 +9725,13 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9733,7 +9739,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9756,13 +9762,13 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9813,7 +9819,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9831,13 +9837,13 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9845,7 +9851,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9957,7 +9963,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10071,7 +10077,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10094,13 +10100,13 @@
         <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10151,7 +10157,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10169,7 +10175,7 @@
         <v>94</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>41</v>
@@ -10183,7 +10189,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10209,10 +10215,10 @@
         <v>234</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10263,7 +10269,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10281,7 +10287,7 @@
         <v>94</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>41</v>
@@ -10295,7 +10301,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10321,10 +10327,10 @@
         <v>131</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10375,7 +10381,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>51</v>
@@ -10393,7 +10399,7 @@
         <v>94</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>41</v>
@@ -10407,7 +10413,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10430,13 +10436,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10487,7 +10493,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10499,7 +10505,7 @@
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
@@ -10519,7 +10525,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10631,7 +10637,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10745,11 +10751,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10774,7 +10780,7 @@
         <v>118</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>120</v>
@@ -10827,7 +10833,7 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -10859,7 +10865,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10885,10 +10891,10 @@
         <v>152</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10919,7 +10925,7 @@
       </c>
       <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>41</v>
@@ -10937,7 +10943,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10955,13 +10961,13 @@
         <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>41</v>
@@ -10969,7 +10975,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10995,10 +11001,10 @@
         <v>152</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11029,7 +11035,7 @@
       </c>
       <c r="X81" s="2"/>
       <c r="Y81" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>41</v>
@@ -11047,7 +11053,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11062,7 +11068,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>206</v>
@@ -11071,7 +11077,7 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>41</v>
@@ -11079,7 +11085,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11102,16 +11108,16 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11161,7 +11167,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11173,13 +11179,13 @@
         <v>41</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11193,7 +11199,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11305,7 +11311,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11419,11 +11425,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11448,7 +11454,7 @@
         <v>118</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>120</v>
@@ -11501,7 +11507,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11533,7 +11539,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11559,10 +11565,10 @@
         <v>234</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11613,7 +11619,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11628,7 +11634,7 @@
         <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>239</v>
@@ -11645,7 +11651,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11668,13 +11674,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11725,7 +11731,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11740,10 +11746,10 @@
         <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>41</v>
@@ -11757,7 +11763,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11783,10 +11789,10 @@
         <v>202</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11837,7 +11843,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11852,10 +11858,10 @@
         <v>41</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>41</v>
@@ -11869,7 +11875,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11892,13 +11898,13 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11949,7 +11955,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11961,13 +11967,13 @@
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>41</v>
@@ -11981,7 +11987,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12093,7 +12099,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12207,11 +12213,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12236,7 +12242,7 @@
         <v>118</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>120</v>
@@ -12289,7 +12295,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12321,7 +12327,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12344,13 +12350,13 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12401,7 +12407,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12419,7 +12425,7 @@
         <v>41</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>41</v>
@@ -12433,7 +12439,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12459,10 +12465,10 @@
         <v>131</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12513,7 +12519,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12531,7 +12537,7 @@
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>41</v>
@@ -12545,7 +12551,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12571,10 +12577,10 @@
         <v>185</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12625,7 +12631,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12643,7 +12649,7 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>41</v>
@@ -12657,7 +12663,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12683,10 +12689,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12737,7 +12743,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12755,7 +12761,7 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>41</v>
@@ -12769,7 +12775,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12792,13 +12798,13 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12849,7 +12855,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12867,7 +12873,7 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
@@ -12881,7 +12887,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12907,10 +12913,10 @@
         <v>152</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12940,10 +12946,10 @@
         <v>254</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>41</v>
@@ -12961,7 +12967,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>51</v>
@@ -12979,7 +12985,7 @@
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
@@ -12993,7 +12999,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13105,7 +13111,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13219,7 +13225,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13333,7 +13339,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>303</v>
@@ -13451,7 +13457,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13563,7 +13569,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13675,7 +13681,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>306</v>
@@ -13703,10 +13709,10 @@
         <v>307</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13775,7 +13781,7 @@
         <v>41</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>41</v>
@@ -13789,7 +13795,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13815,23 +13821,23 @@
         <v>64</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>41</v>
@@ -13873,7 +13879,7 @@
         <v>41</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -13888,10 +13894,10 @@
         <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>41</v>
@@ -13905,7 +13911,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13931,13 +13937,13 @@
         <v>131</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13987,7 +13993,7 @@
         <v>41</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14002,10 +14008,10 @@
         <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>41</v>
@@ -14019,7 +14025,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14045,14 +14051,14 @@
         <v>70</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>41</v>
@@ -14101,7 +14107,7 @@
         <v>41</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14116,10 +14122,10 @@
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>41</v>
@@ -14133,7 +14139,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14159,14 +14165,14 @@
         <v>131</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>41</v>
@@ -14215,7 +14221,7 @@
         <v>41</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14230,10 +14236,10 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>41</v>
@@ -14247,7 +14253,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14273,16 +14279,16 @@
         <v>202</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>41</v>
@@ -14331,7 +14337,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14346,10 +14352,10 @@
         <v>41</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14363,7 +14369,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14389,16 +14395,16 @@
         <v>131</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>41</v>
@@ -14447,7 +14453,7 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14462,10 +14468,10 @@
         <v>41</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14479,7 +14485,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14505,13 +14511,13 @@
         <v>152</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14540,10 +14546,10 @@
         <v>254</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>41</v>
@@ -14561,7 +14567,7 @@
         <v>41</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>51</v>
@@ -14579,7 +14585,7 @@
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14593,7 +14599,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14705,7 +14711,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14819,7 +14825,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14935,7 +14941,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15047,7 +15053,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15161,7 +15167,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15187,16 +15193,16 @@
         <v>64</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>41</v>
@@ -15245,7 +15251,7 @@
         <v>41</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15260,10 +15266,10 @@
         <v>41</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>41</v>
@@ -15277,7 +15283,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15303,13 +15309,13 @@
         <v>131</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15359,7 +15365,7 @@
         <v>41</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15374,10 +15380,10 @@
         <v>41</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>41</v>
@@ -15391,7 +15397,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15417,14 +15423,14 @@
         <v>70</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>41</v>
@@ -15473,7 +15479,7 @@
         <v>41</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15488,10 +15494,10 @@
         <v>41</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>41</v>
@@ -15505,7 +15511,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15531,14 +15537,14 @@
         <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>41</v>
@@ -15587,7 +15593,7 @@
         <v>41</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -15602,10 +15608,10 @@
         <v>41</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>41</v>
@@ -15619,7 +15625,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15645,16 +15651,16 @@
         <v>202</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>41</v>
@@ -15703,7 +15709,7 @@
         <v>41</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -15718,10 +15724,10 @@
         <v>41</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>41</v>
@@ -15735,7 +15741,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15761,16 +15767,16 @@
         <v>131</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>41</v>
@@ -15819,7 +15825,7 @@
         <v>41</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -15834,10 +15840,10 @@
         <v>41</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>41</v>
@@ -15851,7 +15857,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15877,10 +15883,10 @@
         <v>152</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15910,10 +15916,10 @@
         <v>254</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>41</v>
@@ -15931,7 +15937,7 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -15949,7 +15955,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>41</v>

--- a/docs/CareConnect-Immunization-1.xlsx
+++ b/docs/CareConnect-Immunization-1.xlsx
@@ -1857,11 +1857,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1874,24 +1874,24 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.6796875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.67578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.91015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="48.59375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="142.6484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="237.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="35.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="35.83984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="158.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/docs/CareConnect-Immunization-1.xlsx
+++ b/docs/CareConnect-Immunization-1.xlsx
@@ -1857,11 +1857,11 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1874,24 +1874,24 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.67578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.6796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.91015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="48.59765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="142.6484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="237.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="35.83984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="35.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="158.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
